--- a/resources/4A DSM.xlsx
+++ b/resources/4A DSM.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\greed\Documents\flask-calendar\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,24 +24,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
-  <si>
-    <t xml:space="preserve">Lu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ju</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:00-7:50</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+  <si>
+    <t>Lu</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>Mi</t>
+  </si>
+  <si>
+    <t>Ju</t>
+  </si>
+  <si>
+    <t>Vi</t>
+  </si>
+  <si>
+    <t>7:00-7:50</t>
   </si>
   <si>
     <r>
@@ -59,7 +63,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Martin Flores Juan Manuel</t>
+      <t>Martin Flores Juan Manuel</t>
     </r>
   </si>
   <si>
@@ -81,7 +85,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Diseño de apps
+      <t>Diseño de apps
 Martinez Gaspar Marisa Concepción</t>
     </r>
   </si>
@@ -104,7 +108,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Principios para IOT
+      <t>Principios para IOT
 Kao Poot Luis Javier</t>
     </r>
   </si>
@@ -128,7 +132,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Martin Flores Juan Manuel</t>
+      <t>Martin Flores Juan Manuel</t>
     </r>
   </si>
   <si>
@@ -151,11 +155,11 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Castillo Salazar Laura Angelina</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">7:50-8:40</t>
+      <t>Castillo Salazar Laura Angelina</t>
+    </r>
+  </si>
+  <si>
+    <t>7:50-8:40</t>
   </si>
   <si>
     <r>
@@ -177,14 +181,14 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Canto Bonilla Carlos Alberto</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">9:00-9:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laboratorio 2
+      <t>Canto Bonilla Carlos Alberto</t>
+    </r>
+  </si>
+  <si>
+    <t>9:00-9:50</t>
+  </si>
+  <si>
+    <t>Laboratorio 2
 Aplicaciones Web Orientada a Objetos
 Chuc Uc Joel Ivan</t>
   </si>
@@ -207,35 +211,12 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Estructura de datos aplicadas
+      <t>Estructura de datos aplicadas
 Canche Caamal Mirian Guadalupe</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Laboratorio 4
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Diseño de apps
-Martinez Gaspar Marisa Concepción</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Laboratorio 8
+    <t>Laboratorio 8
 Aplicaciones Web Orientada a Objetos
 Chuc Uc Joel Ivan</t>
   </si>
@@ -259,19 +240,14 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Canto Bonilla Carlos Alberto</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">9:50-10:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aula C-102
-Administración del tiempo
-Karla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:00-11:50</t>
+      <t>Canto Bonilla Carlos Alberto</t>
+    </r>
+  </si>
+  <si>
+    <t>9:50-10:40</t>
+  </si>
+  <si>
+    <t>11:00-11:50</t>
   </si>
   <si>
     <r>
@@ -293,7 +269,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Castillo Salazar Laura Angelina</t>
+      <t>Castillo Salazar Laura Angelina</t>
     </r>
   </si>
   <si>
@@ -315,7 +291,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">INGLES</t>
+      <t>INGLES</t>
     </r>
   </si>
   <si>
@@ -337,7 +313,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Estructura de datos aplicadas
+      <t>Estructura de datos aplicadas
 Canche Caamal Mirian Guadalupe</t>
     </r>
   </si>
@@ -360,26 +336,18 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Estructura de datos aplicadas
+      <t>Estructura de datos aplicadas
 Canche Caamal Mirian Guadalupe</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">11:50-12:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laboratorio 2
-Ingeniería Económica
-Victor Quijano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:40-13:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laboratorio 1
+    <t>11:50-12:40</t>
+  </si>
+  <si>
+    <t>12:40-13:30</t>
+  </si>
+  <si>
+    <t>Laboratorio 1
 Aplicaciones Web Orientada a Objetos
 Chuc Uc Joel Ivan</t>
   </si>
@@ -402,7 +370,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Principios para IOT
+      <t>Principios para IOT
 Kao Poot Luis Javier</t>
     </r>
   </si>
@@ -425,27 +393,40 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Tutorías
+      <t>Tutorías
 Canche Caamal Mirian Guadalupe</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">13:30-14:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aula C-102
+    <t>13:30-14:20</t>
+  </si>
+  <si>
+    <t>Aula C-102
 Aplicaciones Web Orientada a Objetos
 Chuc Uc Joel Ivan</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Laboratorio 4
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Diseño de apps
+Martinez Gaspar Marisa Concepción</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -454,33 +435,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -491,127 +449,412 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="5">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="32.93"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="6" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -620,27 +863,27 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="79.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="72.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:6" ht="72.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -649,97 +892,99 @@
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="6" customFormat="false" ht="55.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
+    <row r="7" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="55.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:6" ht="59.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="9" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
@@ -749,22 +994,8 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>